--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\Data dissemination\iotc-reference-data\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE1784-5B39-444B-9A4D-2E4FAB192A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079045DD-758C-4D64-88A2-71D015135145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -672,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -817,6 +817,23 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -857,24 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,24 +1209,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1277,15 +1276,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="53"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,7 +1307,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="22"/>
@@ -1390,7 +1389,7 @@
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="53" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="36"/>
@@ -1398,12 +1397,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="53" t="s">
         <v>44</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="53" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="36"/>
@@ -1411,7 +1410,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="36"/>
@@ -1454,20 +1453,20 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="53" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="53" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="36"/>
@@ -1478,7 +1477,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="53" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="36"/>
@@ -1486,12 +1485,12 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="53" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="36"/>
@@ -1499,7 +1498,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="36"/>
@@ -1512,7 +1511,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="53" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="36"/>
@@ -1523,12 +1522,12 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="53" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="36"/>
@@ -1543,7 +1542,7 @@
       <c r="E31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="53" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="36"/>
@@ -1589,11 +1588,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1610,7 +1609,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Exm+1JjaLpBZ4qqnrLA2+IIPThLibpHMx8XXZtIJWE9M4I21dfNciFGOhntHoBoe6L7mcjwZOXXVmW4F+/Jig==" saltValue="V5mEvdI4JJo7w9SaQSk8dA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6V1Wn76De8eW/mCIZJ7wIAW4MCo0r+B32r2Io1HirUsYP76Cylk/Mz+XhCr48uJrQtQ/e8dtQi8/o46sqL3OTQ==" saltValue="1k/9AjWaL2HctrhQGqJ2dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1676,46 +1675,46 @@
       <c r="H1" s="50"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="63" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="65"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="55" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="38" t="s">
@@ -1724,10 +1723,10 @@
       <c r="F5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="57" t="s">
         <v>28</v>
       </c>
     </row>

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079045DD-758C-4D64-88A2-71D015135145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B11E8-E062-42A0-9DB6-B3DE79FCD738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Focal point</t>
   </si>
@@ -150,9 +150,6 @@
     <t>4-SF</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>Reporting entity</t>
+  </si>
+  <si>
+    <t>1.0.0-legacy</t>
+  </si>
+  <si>
+    <t>Target species</t>
   </si>
 </sst>
 </file>
@@ -1237,11 +1240,11 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1398,12 +1401,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="10"/>
       <c r="F19" s="53" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="11"/>
@@ -1415,8 +1418,10 @@
       </c>
       <c r="D20" s="36"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="36"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1459,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="11"/>
@@ -1462,7 +1467,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="36"/>
       <c r="E25" s="10"/>
@@ -1478,7 +1483,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="11"/>
@@ -1512,7 +1517,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="10"/>
@@ -1528,7 +1533,7 @@
       <c r="D30" s="36"/>
       <c r="E30" s="10"/>
       <c r="F30" s="53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="11"/>
@@ -1540,7 +1545,7 @@
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="53" t="s">
         <v>35</v>
@@ -1609,7 +1614,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6V1Wn76De8eW/mCIZJ7wIAW4MCo0r+B32r2Io1HirUsYP76Cylk/Mz+XhCr48uJrQtQ/e8dtQi8/o46sqL3OTQ==" saltValue="1k/9AjWaL2HctrhQGqJ2dg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KahuItHu6skXuEu6ZH/tAa4dgvjJBE3i/Kd5ufL2o29oGcOncS7leyiB/Bvt3UuOsQqSsDqjvjwRl5tvKIkxQA==" saltValue="SQ1lGWnQKjvuJbeoXfuVnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1617,8 +1622,11 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="C36:G36"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 F18:F19 D23 C19:C20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 C19:C20 F18 F20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
+      <formula1>"&lt;0&gt;0"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19" xr:uid="{93A63F1F-5F47-493E-9538-15E542A95CCE}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1626,7 +1634,7 @@
     <hyperlink ref="C19" r:id="rId1" location="countries" display="Reporting country" xr:uid="{874BDFDD-9442-4F43-BBE3-A01911171970}"/>
     <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{1ED04876-0842-4F36-876E-A7DB35571C7C}"/>
     <hyperlink ref="F18" r:id="rId3" location="fisheries" xr:uid="{08B044D0-F33A-4C27-92B1-1FBE141C0AD0}"/>
-    <hyperlink ref="F19" r:id="rId4" location="species" xr:uid="{331D4B50-AFB7-41CE-BEFF-B412EE64BEE9}"/>
+    <hyperlink ref="F20" r:id="rId4" location="species" xr:uid="{331D4B50-AFB7-41CE-BEFF-B412EE64BEE9}"/>
     <hyperlink ref="C25" r:id="rId5" location="types" xr:uid="{3E799C58-326C-4CFE-A76A-FC897A811AF1}"/>
     <hyperlink ref="C30" r:id="rId6" location="coverageTypes" xr:uid="{63BCD347-81CA-49E2-9D0A-0904F18F0407}"/>
     <hyperlink ref="F25" r:id="rId7" location="typesOfMeasurement" xr:uid="{6A07B49D-D8D1-4E04-9516-DB9A19992696}"/>
@@ -1637,9 +1645,10 @@
     <hyperlink ref="F27" r:id="rId12" location="fates" display="Fate of catch sampled" xr:uid="{7A228202-3AA5-42C7-8D30-08152078D86D}"/>
     <hyperlink ref="F26" r:id="rId13" location="allMeasurementTypes" xr:uid="{12743A08-7D0D-4FD3-801E-17FDAB969A4D}"/>
     <hyperlink ref="F31" r:id="rId14" location="fates" xr:uid="{7F16F4B7-0EBD-4CB5-A51B-3B30C421ED01}"/>
+    <hyperlink ref="F19" r:id="rId15" location="species" display="Species" xr:uid="{84B1C544-D38D-4519-B1C8-C7A5A6185BC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B11E8-E062-42A0-9DB6-B3DE79FCD738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC5EB8-D119-4A19-83B7-39BEA68E0650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1622,11 +1622,8 @@
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="C36:G36"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 C19:C20 F18 F20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19" xr:uid="{93A63F1F-5F47-493E-9538-15E542A95CCE}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31 C25 C27:C30 F25:F27 D23 C19:C20 F18:F20" xr:uid="{D97DB983-6157-43A9-ADF0-B303F23C5B2A}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AC5EB8-D119-4A19-83B7-39BEA68E0650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51244F-2D97-474C-AF63-A07A35AED66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +243,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -742,12 +761,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -764,10 +777,6 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -823,20 +832,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -877,6 +872,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,24 +1231,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1279,15 +1298,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1330,7 +1349,7 @@
       <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1341,7 +1360,7 @@
       <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1390,38 +1409,38 @@
       <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="36"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1447,7 +1466,7 @@
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1458,23 +1477,23 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="58"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1482,44 +1501,44 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="36"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="36"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="10"/>
       <c r="F28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="36"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -1527,15 +1546,15 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1543,14 +1562,14 @@
       <c r="C31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1576,7 +1595,7 @@
       <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -1593,11 +1612,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="67"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1614,7 +1633,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KahuItHu6skXuEu6ZH/tAa4dgvjJBE3i/Kd5ufL2o29oGcOncS7leyiB/Bvt3UuOsQqSsDqjvjwRl5tvKIkxQA==" saltValue="SQ1lGWnQKjvuJbeoXfuVnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v0QV3uQ3fl960Y7xKG554hiQouR5e89vppehNiMTK4tKMrXKJebSMSRwQtTzpZzbMCLg5jlFSn9/amIYVEtlkQ==" saltValue="JLz6mNDQCiQUqpgh0wR+lw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1663,76 +1682,76 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="47" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="51" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="44" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="68" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="70"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="70" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1741,453 +1760,453 @@
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="35"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="35"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="35"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="35"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="35"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="35"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="35"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="35"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="33"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="35"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="35"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="35"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="35"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="35"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="35"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="35"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="33"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="35"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="35"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="35"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="35"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="35"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="33"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="35"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="33"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="35"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="33"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="35"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="35"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="35"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="35"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="33"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="35"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="33"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="35"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="33"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="35"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="33"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="35"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="33"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="35"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="33"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="35"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="33"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="35"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="33"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="35"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="35"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="33"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="35"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="35"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3m50Qd2oD8eR+78zukMgolESDz8rcu1tpYXdtU3uR3C6GelNfeSNBPl/wOgUMGrvA5Enr5w+8/OCcYk/x5vugg==" saltValue="Bmw63Kgkn0e8bJAGzDhDtQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hE+P4Lcte1doZ0LiF5IKL+cHFK+fUoxYXuwSicwllV+2rBtpwmCOh3tlpQfGADo7BlHY3nkymAra2Npa/+SkCQ==" saltValue="N2ckJifjlgQ8eD07hGFFPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:H3"/>
@@ -2204,5 +2223,6 @@
     <hyperlink ref="E5" r:id="rId3" location="estimations" xr:uid="{4F291372-D6AE-47E5-861F-6BC3359D6176}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51244F-2D97-474C-AF63-A07A35AED66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B154951D-9A69-4281-B073-8CB479140E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -781,18 +781,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -832,6 +820,30 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -874,29 +886,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1231,24 +1231,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1298,15 +1298,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="47" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="34"/>
@@ -1419,12 +1419,12 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="47" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="34"/>
@@ -1432,12 +1432,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="47" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="34"/>
@@ -1466,7 +1466,7 @@
       <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1477,20 +1477,20 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="51"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="47" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="47" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="34"/>
@@ -1501,7 +1501,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="47" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="34"/>
@@ -1509,12 +1509,12 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="34"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="47" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="34"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="34"/>
@@ -1546,12 +1546,12 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="47" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="34"/>
@@ -1566,7 +1566,7 @@
       <c r="E31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="47" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="34"/>
@@ -1612,11 +1612,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1682,12 +1682,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="44" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="41" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="70" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1696,62 +1696,62 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="61" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1760,17 +1760,17 @@
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="33"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1778,8 +1778,8 @@
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="42"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="33"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1787,8 +1787,8 @@
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1796,8 +1796,8 @@
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="33"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1805,8 +1805,8 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="33"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1814,8 +1814,8 @@
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="33"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1823,8 +1823,8 @@
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="33"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -1832,8 +1832,8 @@
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="33"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1841,8 +1841,8 @@
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -1850,8 +1850,8 @@
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="33"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -1859,8 +1859,8 @@
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1868,8 +1868,8 @@
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="33"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1877,8 +1877,8 @@
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1886,8 +1886,8 @@
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="33"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1895,8 +1895,8 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="33"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1904,8 +1904,8 @@
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="42"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="33"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1913,8 +1913,8 @@
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="33"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1922,8 +1922,8 @@
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="33"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1931,8 +1931,8 @@
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1940,8 +1940,8 @@
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="33"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1949,8 +1949,8 @@
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1958,8 +1958,8 @@
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1967,8 +1967,8 @@
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1976,8 +1976,8 @@
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1985,8 +1985,8 @@
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1994,8 +1994,8 @@
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -2003,8 +2003,8 @@
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -2012,8 +2012,8 @@
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -2021,8 +2021,8 @@
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -2030,8 +2030,8 @@
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -2039,8 +2039,8 @@
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -2048,8 +2048,8 @@
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="39"/>
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -2057,8 +2057,8 @@
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -2066,8 +2066,8 @@
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -2075,8 +2075,8 @@
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -2084,8 +2084,8 @@
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="42"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="39"/>
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -2093,8 +2093,8 @@
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -2102,8 +2102,8 @@
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="42"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="39"/>
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -2111,8 +2111,8 @@
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="42"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -2120,8 +2120,8 @@
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="42"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="39"/>
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -2129,8 +2129,8 @@
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="42"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -2138,8 +2138,8 @@
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="42"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="39"/>
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -2147,8 +2147,8 @@
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="42"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -2156,8 +2156,8 @@
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="42"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -2165,8 +2165,8 @@
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="42"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -2174,8 +2174,8 @@
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="42"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="39"/>
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -2183,8 +2183,8 @@
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="42"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -2192,8 +2192,8 @@
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="42"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -2201,12 +2201,12 @@
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="42"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hE+P4Lcte1doZ0LiF5IKL+cHFK+fUoxYXuwSicwllV+2rBtpwmCOh3tlpQfGADo7BlHY3nkymAra2Npa/+SkCQ==" saltValue="N2ckJifjlgQ8eD07hGFFPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ElKpt1iJfkNTUF4xwSlzOAsIAl4lbpw8t2VxAQLixP1ZSG56zVb9k7MtxNJcBFUeDj/vxnO/foARFUunf0zgDg==" saltValue="GeckV9cempkE4SlrgYxP3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:H3"/>

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B154951D-9A69-4281-B073-8CB479140E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8EBFA-2A15-4EBF-9B08-D9F674EEDAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -844,6 +844,18 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -885,25 +897,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1231,24 +1239,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1298,15 +1306,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="55"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,10 +1485,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1612,11 +1620,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,7 +1693,7 @@
     <col min="2" max="2" width="11.42578125" style="41" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="42" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="70" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="57" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="45" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="46" customWidth="1"/>
   </cols>
@@ -1700,37 +1708,37 @@
       <c r="H1" s="44"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
@@ -1760,7 +1768,7 @@
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="68"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
     </row>
@@ -1769,7 +1777,7 @@
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="69"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="39"/>
       <c r="H7" s="33"/>
     </row>
@@ -1778,7 +1786,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
-      <c r="F8" s="69"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="39"/>
       <c r="H8" s="33"/>
     </row>
@@ -1787,7 +1795,7 @@
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="69"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="39"/>
       <c r="H9" s="33"/>
     </row>
@@ -1796,7 +1804,7 @@
       <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="39"/>
       <c r="H10" s="33"/>
     </row>
@@ -1805,7 +1813,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="69"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="39"/>
       <c r="H11" s="33"/>
     </row>
@@ -1814,7 +1822,7 @@
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="69"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="39"/>
       <c r="H12" s="33"/>
     </row>
@@ -1823,7 +1831,7 @@
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="69"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="39"/>
       <c r="H13" s="33"/>
     </row>
@@ -1832,7 +1840,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="69"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="39"/>
       <c r="H14" s="33"/>
     </row>
@@ -1841,7 +1849,7 @@
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="69"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="39"/>
       <c r="H15" s="33"/>
     </row>
@@ -1850,7 +1858,7 @@
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="69"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="39"/>
       <c r="H16" s="33"/>
     </row>
@@ -1859,7 +1867,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="69"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="39"/>
       <c r="H17" s="33"/>
     </row>
@@ -1868,7 +1876,7 @@
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
-      <c r="F18" s="69"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="39"/>
       <c r="H18" s="33"/>
     </row>
@@ -1877,7 +1885,7 @@
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="69"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="39"/>
       <c r="H19" s="33"/>
     </row>
@@ -1886,7 +1894,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="69"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="39"/>
       <c r="H20" s="33"/>
     </row>
@@ -1895,7 +1903,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="69"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="39"/>
       <c r="H21" s="33"/>
     </row>
@@ -1904,7 +1912,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="69"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="39"/>
       <c r="H22" s="33"/>
     </row>
@@ -1913,7 +1921,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="69"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="39"/>
       <c r="H23" s="33"/>
     </row>
@@ -1922,7 +1930,7 @@
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="69"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="39"/>
       <c r="H24" s="33"/>
     </row>
@@ -1931,7 +1939,7 @@
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="69"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="39"/>
       <c r="H25" s="33"/>
     </row>
@@ -1940,7 +1948,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="69"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="39"/>
       <c r="H26" s="33"/>
     </row>
@@ -1949,7 +1957,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="69"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="39"/>
       <c r="H27" s="33"/>
     </row>
@@ -1958,7 +1966,7 @@
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="69"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="39"/>
       <c r="H28" s="33"/>
     </row>
@@ -1967,7 +1975,7 @@
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="69"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="39"/>
       <c r="H29" s="33"/>
     </row>
@@ -1976,7 +1984,7 @@
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="69"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="39"/>
       <c r="H30" s="33"/>
     </row>
@@ -1985,7 +1993,7 @@
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="69"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="39"/>
       <c r="H31" s="33"/>
     </row>
@@ -1994,7 +2002,7 @@
       <c r="C32" s="28"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="69"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="39"/>
       <c r="H32" s="33"/>
     </row>
@@ -2003,7 +2011,7 @@
       <c r="C33" s="28"/>
       <c r="D33" s="29"/>
       <c r="E33" s="30"/>
-      <c r="F33" s="69"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="39"/>
       <c r="H33" s="33"/>
     </row>
@@ -2012,7 +2020,7 @@
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30"/>
-      <c r="F34" s="69"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="39"/>
       <c r="H34" s="33"/>
     </row>
@@ -2021,7 +2029,7 @@
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="69"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="39"/>
       <c r="H35" s="33"/>
     </row>
@@ -2030,7 +2038,7 @@
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="69"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="39"/>
       <c r="H36" s="33"/>
     </row>
@@ -2039,7 +2047,7 @@
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="69"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="39"/>
       <c r="H37" s="33"/>
     </row>
@@ -2048,7 +2056,7 @@
       <c r="C38" s="28"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="69"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="39"/>
       <c r="H38" s="33"/>
     </row>
@@ -2057,7 +2065,7 @@
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="69"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="39"/>
       <c r="H39" s="33"/>
     </row>
@@ -2066,7 +2074,7 @@
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="69"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="39"/>
       <c r="H40" s="33"/>
     </row>
@@ -2075,7 +2083,7 @@
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="69"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="39"/>
       <c r="H41" s="33"/>
     </row>
@@ -2084,7 +2092,7 @@
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30"/>
-      <c r="F42" s="69"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="39"/>
       <c r="H42" s="33"/>
     </row>
@@ -2093,7 +2101,7 @@
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="69"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="39"/>
       <c r="H43" s="33"/>
     </row>
@@ -2102,7 +2110,7 @@
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="69"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="39"/>
       <c r="H44" s="33"/>
     </row>
@@ -2111,7 +2119,7 @@
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="69"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="39"/>
       <c r="H45" s="33"/>
     </row>
@@ -2120,7 +2128,7 @@
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30"/>
-      <c r="F46" s="69"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="39"/>
       <c r="H46" s="33"/>
     </row>
@@ -2129,7 +2137,7 @@
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
-      <c r="F47" s="69"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="39"/>
       <c r="H47" s="33"/>
     </row>
@@ -2138,7 +2146,7 @@
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
-      <c r="F48" s="69"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="39"/>
       <c r="H48" s="33"/>
     </row>
@@ -2147,7 +2155,7 @@
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="30"/>
-      <c r="F49" s="69"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="39"/>
       <c r="H49" s="33"/>
     </row>
@@ -2156,7 +2164,7 @@
       <c r="C50" s="28"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30"/>
-      <c r="F50" s="69"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="39"/>
       <c r="H50" s="33"/>
     </row>
@@ -2165,7 +2173,7 @@
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="69"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="39"/>
       <c r="H51" s="33"/>
     </row>
@@ -2174,7 +2182,7 @@
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="69"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="39"/>
       <c r="H52" s="33"/>
     </row>
@@ -2183,7 +2191,7 @@
       <c r="C53" s="28"/>
       <c r="D53" s="29"/>
       <c r="E53" s="30"/>
-      <c r="F53" s="69"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="39"/>
       <c r="H53" s="33"/>
     </row>
@@ -2192,7 +2200,7 @@
       <c r="C54" s="28"/>
       <c r="D54" s="29"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="69"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="39"/>
       <c r="H54" s="33"/>
     </row>
@@ -2201,17 +2209,22 @@
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="69"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="39"/>
       <c r="H55" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ElKpt1iJfkNTUF4xwSlzOAsIAl4lbpw8t2VxAQLixP1ZSG56zVb9k7MtxNJcBFUeDj/vxnO/foARFUunf0zgDg==" saltValue="GeckV9cempkE4SlrgYxP3g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qYRk5oQJxnACveKBQXkw1NY14p0VrhCVL1wDGRfVd7HQewAa5ZVSBic3BvqeJfVdkTKtK1vPvK2XsEWOxaDAdw==" saltValue="/6IxzN7nfqYw7HUezpY34w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="F4:H4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:H1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:E5" xr:uid="{FEE98675-F13D-4A7E-BF03-FB974D21EE1E}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC8EBFA-2A15-4EBF-9B08-D9F674EEDAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F1823-DB76-4994-965B-133CD46AE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1680,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/forms/Form-4SF.xlsx
+++ b/forms/Form-4SF.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F1823-DB76-4994-965B-133CD46AE13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CB236D-C045-42B9-8FE5-C0028C42D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1223,7 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
